--- a/medicine/Pharmacie/Jean-Noël_Thorel/Jean-Noël_Thorel.xlsx
+++ b/medicine/Pharmacie/Jean-Noël_Thorel/Jean-Noël_Thorel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-No%C3%ABl_Thorel</t>
+          <t>Jean-Noël_Thorel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Noël Thorel, né le 31 juillet 1947 à Châtillon, est un entrepreneur et pharmacien français. Il est le fondateur et CEO de Naos, une entreprise de cosmétiques françaises qui exploite notamment les marques Bioderma, Institut Esthederm et État Pur.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-No%C3%ABl_Thorel</t>
+          <t>Jean-Noël_Thorel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les années 1970, Jean-Noël Thorel développe les premiers produits[1] qui seront ensuite commercialisés sous les marques Institut Esthederm, Bioderma, et État Pur, au sein de l’entité NAOS[2].
-Il a souhaité ne pas délocaliser la production de tous les produits de l’entreprise, produits en France à côté d’Aix-en-Provence[2].
-Jean-Noël Thorel a créé une fondation actionnaire, dont le siège est à Reillanne, dans le but de « concilier rentabilité et action philanthropique »[3],[4]. En 2018, il a cédé la totalité de ses actifs de Naos à cette fondation actionnaire[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les années 1970, Jean-Noël Thorel développe les premiers produits qui seront ensuite commercialisés sous les marques Institut Esthederm, Bioderma, et État Pur, au sein de l’entité NAOS.
+Il a souhaité ne pas délocaliser la production de tous les produits de l’entreprise, produits en France à côté d’Aix-en-Provence.
+Jean-Noël Thorel a créé une fondation actionnaire, dont le siège est à Reillanne, dans le but de « concilier rentabilité et action philanthropique »,. En 2018, il a cédé la totalité de ses actifs de Naos à cette fondation actionnaire.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean-No%C3%ABl_Thorel</t>
+          <t>Jean-Noël_Thorel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Poker</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Noël Thorel est amateur de poker[5]. Sur le circuit professionnel depuis 2008, il a participé à plusieurs tables finales de l'European Poker Tour[6],[7]. Il participe notamment aux tournois high roller[8].
-En 2023, il est classé 1er joueur français ayant remporté le plus de gains en tournoi[9]. La somme est estimé à plus de 19,562,366 $[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Noël Thorel est amateur de poker. Sur le circuit professionnel depuis 2008, il a participé à plusieurs tables finales de l'European Poker Tour,. Il participe notamment aux tournois high roller.
+En 2023, il est classé 1er joueur français ayant remporté le plus de gains en tournoi. La somme est estimé à plus de 19,562,366 $.
 </t>
         </is>
       </c>
